--- a/mathTransformed/HMPSTT_(2017-08-13)_71_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-13)_71_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. P U College (Boys) Basavakalyan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Govt. High School BelkeraHumnabad</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S Kadwad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S UdbalHumanabad</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S (Boys) ChitguppaHumnabad</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High School Khatak ChicholiBhalki</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S Mandaknalli</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Nalanda P H S SundhalAurad</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Sri Jai Prakash H S Markunda</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Jyoti H S Thana KushnoorAurad</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S (Boys) ChitaguppaHumnabad</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Shri SiddeshwarHigh SchoolMorkhandiBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. Urdh High School Kamthana</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Akka Maha Devi Girls</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>H S Bidar</t>
         </is>
       </c>
@@ -858,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Sri Siddeshwar High SchoolMorkhandiBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -885,6 +965,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Shri RamalingaiahH S SastapurBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -912,6 +997,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G M P S SanthpurAurad</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -936,7 +1026,8 @@
           <t>GADAGAYYA SWAMY</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>GADAGAYYA SWAM</t>
         </is>
@@ -954,6 +1045,11 @@
         </is>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>Ambedkar Tatva High SchoolYakatpur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -982,6 +1078,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>R H BallurHigh School</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1009,6 +1110,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Sri Sharada High SchoolNaubad</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1033,6 +1139,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Zikra Girls High SchoolBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1060,6 +1171,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S KosamBhalki</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1087,6 +1203,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S TUGAON(H)Bhalki</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1114,6 +1235,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Sri G N H S ChintakiAurad</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1135,6 +1261,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Karnatak</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>H S Bidar</t>
         </is>
       </c>
@@ -1162,6 +1293,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. Urdu High School Kamthana</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1189,6 +1325,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Smt. G P A H S YerbagBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1214,7 +1355,8 @@
           <t>MD NIZAMUDDIN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>G H S Chidri Bidar</t>
         </is>
@@ -1243,6 +1385,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H P S SorahalliAurad</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1270,6 +1417,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Nananda H S Aurad</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1297,6 +1449,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Govt. High School RajolaBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1324,6 +1481,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Sri ShivalingeshwaraHigh School Kherda (B)Basavakalyan</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1351,6 +1513,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Pure Panchsheel High SchoolTalwada(K)Bhalki</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1378,6 +1545,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt. H S Kaplapur(W)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1405,6 +1577,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Sri G N H S ChintakiAurad</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1432,6 +1609,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Smt. Indira Gandhi High School Aurad</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1459,6 +1641,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Smt. Chikkamani D DevrajUrs H S</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1483,7 +1670,8 @@
           <t>PRANESH B</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t xml:space="preserve">PRANESH </t>
         </is>
@@ -1501,6 +1689,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>M R A High School</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -1529,6 +1722,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Bhasker and Gnyni BallurMemorial High School</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1556,6 +1754,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. High School KodambalHumanabad</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1583,6 +1786,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S EkambaBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1610,6 +1818,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Neelambika Girls High School</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1637,6 +1850,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Parimala High School</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1664,6 +1882,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>KavitaHigh SchoolShahaganj</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1691,6 +1914,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Lata Mangeshkar Girls High School KamalnagarAurad</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1718,6 +1946,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>H M Govt. High School KasamBhalki</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1745,6 +1978,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Kedareshwar High SchoolAurad(B)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1772,6 +2010,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G P U College (High School) KogaliHagaribommanahalli</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1799,6 +2042,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Govt. Adarsh vidyalaya BemalkhedaHumnabad</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1826,6 +2074,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Govt. H SKaplapur(W)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1853,6 +2106,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S NitturBhalki</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1880,6 +2138,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Govt. High School BhatambraBhalki</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1907,6 +2170,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>Adarsh VidyalayaHigh SchoolJanwada</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1934,6 +2202,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>Govt. H S UjalamBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1961,6 +2234,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Vivekanand High School TripurantBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1988,6 +2266,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>Govt High School</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Mannaekhelli</t>
         </is>
       </c>
@@ -2004,6 +2287,11 @@
         </is>
       </c>
       <c r="F61" t="inlineStr">
+        <is>
+          <t>Humnabad</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -2032,6 +2320,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>G H S Markhal</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2059,6 +2352,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>Adarsh Vidyalaya High SchoolRajol</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2086,6 +2384,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>G M P S Aurad(S)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2113,6 +2416,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>Chatrapati Shivaji High SchoolHulsoorAurad</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2140,6 +2448,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>Govt. Girls High SchoolNirnaHumnabad</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2167,6 +2480,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>Shree S H S SiddeshwarBhalki</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2194,6 +2512,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>Ambedkar Tatra High School</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2221,6 +2544,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>G H S BalurBhalki</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2248,6 +2576,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>G H S NimburHumnabad</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2275,6 +2608,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>Al- Ameen Urdu GirlsHigh School</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2303,6 +2641,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>Sangam Aurad</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2328,7 +2671,8 @@
           <t>VILAS RAO KULKARNI</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>Samata High School Bidar</t>
         </is>
@@ -2357,6 +2701,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>Jai Bharat High School Naubad</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2384,6 +2733,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>Govt. High School KallurHumnabad</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -2410,6 +2764,11 @@
         </is>
       </c>
       <c r="F76" t="inlineStr">
+        <is>
+          <t>G G P U College</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-08-13)_71_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-13)_71_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,7 +1026,6 @@
           <t>GADAGAYYA SWAMY</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>GADAGAYYA SWAM</t>
@@ -1355,7 +1354,6 @@
           <t>MD NIZAMUDDIN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>G H S Chidri Bidar</t>
@@ -1670,7 +1668,6 @@
           <t>PRANESH B</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t xml:space="preserve">PRANESH </t>
@@ -2671,7 +2668,6 @@
           <t>VILAS RAO KULKARNI</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>Samata High School Bidar</t>

--- a/mathTransformed/HMPSTT_(2017-08-13)_71_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-13)_71_4.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>H S Bidar</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>H S Bidar</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>G H S Chidri Bidar</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Mannaekhelli</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Samata High School Bidar</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
